--- a/biology/Botanique/Melica_sarmentosa/Melica_sarmentosa.xlsx
+++ b/biology/Botanique/Melica_sarmentosa/Melica_sarmentosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Melica sarmentosa est une espèce de plantes monocotylédones de la famille des Poaceae, sous-famille des Pooideae[2], originaire d'Amérique du Sud.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Melica sarmentosa est une espèce de plantes monocotylédones de la famille des Poaceae, sous-famille des Pooideae, originaire d'Amérique du Sud.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Melica sarmentosa est une plante herbacée vivace, rhizomateuses, aux tiges grimpantes de 150 à 400 cm de long.
 L'inflorescence est une panicule ouverte, pyramidale de 15 à 20 cm de long.
 Les épillets, comprimés latéralement, de 6 à 8 mm de long, comprennent deux à trois fleurons fertiles, avec des fleurons réduits à l'apex.
-Les fruits, ellipsoïdes, de 2 mm de long, brun foncé, sont des caryopses au péricarpe adhérent[2].
+Les fruits, ellipsoïdes, de 2 mm de long, brun foncé, sont des caryopses au péricarpe adhérent.
 </t>
         </is>
       </c>
@@ -545,10 +559,12 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'aire de répartition de Melica sarmentosa comprend le Brésil, le Paraguay, l'Uruguay et le centre et le nord-est de l'Argentine.
-La plante pousse dans des milieux ombragés, à l'orée des forêts ou dans des forêts galeries[3].
+La plante pousse dans des milieux ombragés, à l'orée des forêts ou dans des forêts galeries.
 </t>
         </is>
       </c>
@@ -577,9 +593,11 @@
           <t>Liste des sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (14 avril 2017)[4] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (14 avril 2017) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Melica sarmentosa subsp. cymbaria Ekman
 sous-espèce Melica sarmentosa subsp. sarmentosa
 variété Melica sarmentosa var. glabrior Döll
